--- a/manual/cs/cs_Investigation_results.xlsx
+++ b/manual/cs/cs_Investigation_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gergelysalomvari/Downloads/Investigation_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choeun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B256EB-B352-1244-9567-7D703BF3171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F45ACAD-9944-244F-80EA-31B246D05823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>IP address</t>
   </si>
@@ -128,6 +128,137 @@
   </si>
   <si>
     <t>Please upload your findings to this table. There is an example row (yellow background). Use different background colour please.</t>
+  </si>
+  <si>
+    <t>217.116.232.223</t>
+  </si>
+  <si>
+    <t>130.225.244.90</t>
+  </si>
+  <si>
+    <t>78.156.123.210</t>
+  </si>
+  <si>
+    <t>Sentia Denmark A/S</t>
+  </si>
+  <si>
+    <t>Danmarks Tekniske Universitet</t>
+  </si>
+  <si>
+    <t>Kgs.Lyngby</t>
+  </si>
+  <si>
+    <t>DAN TOR, s5h.net</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shodan, abuseipdb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gigahost ApS</t>
+  </si>
+  <si>
+    <t>21/tcp, 80/tcp Apache httpd, 123/udp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentia.dk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phishing, Email spam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>norlys.dk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed line ISP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norlys Fibernet A/S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silkeborg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.156.96.0/19</t>
+  </si>
+  <si>
+    <t>130.225.0.0/16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>217.116.224.0/19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, 22 Open SSH, 25, 53, 80 Apache httpd, 110, 143, 443 Apache httpd, 587, 873, 993</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>University/College/School</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Center/Web hosting/Transit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wordpress attack, Brute force, DDoS attempts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH bruteforce, Port scan, Web spam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uni-noc.dk, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>tor-relay.dotsrc.org</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 http, 161/udp net-snmp, 9001/tcp, 9030/tcp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>virustotal: -3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>virustotal: -1, abuseipdb: 59%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>157 files: trojan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>682 files: trojan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>virustotal: 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -135,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +296,39 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF20242C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -220,17 +384,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,23 +615,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:R6"/>
+  <dimension ref="A3:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="72.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
@@ -622,10 +793,122 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:P4"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>